--- a/data/city_permits/raw/city_2015.xlsx
+++ b/data/city_permits/raw/city_2015.xlsx
@@ -257,14 +257,14 @@
         </is>
       </c>
       <c s="2" r="H1">
-        <v>42565</v>
+        <v>42621</v>
       </c>
     </row>
     <row r="2" ht="1" customHeight="1"/>
     <row r="3" ht="18" customHeight="1">
       <c s="1" t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">For Permits Issued 1/1/2015 through 12/31/2015</t>
+          <t xml:space="preserve">For Permits Issued 01/01/2015 through 12/31/2015</t>
         </is>
       </c>
     </row>
@@ -26090,7 +26090,7 @@
       </c>
       <c s="5" t="inlineStr" r="E620">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F620"/>
@@ -26132,7 +26132,7 @@
       </c>
       <c s="5" t="inlineStr" r="E621">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F621"/>
@@ -26174,7 +26174,7 @@
       </c>
       <c s="5" t="inlineStr" r="E622">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F622"/>
@@ -26216,7 +26216,7 @@
       </c>
       <c s="5" t="inlineStr" r="E623">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F623"/>
@@ -26258,7 +26258,7 @@
       </c>
       <c s="5" t="inlineStr" r="E624">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F624"/>
@@ -26300,7 +26300,7 @@
       </c>
       <c s="5" t="inlineStr" r="E625">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F625"/>
@@ -26342,7 +26342,7 @@
       </c>
       <c s="5" t="inlineStr" r="E626">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F626"/>
@@ -26384,7 +26384,7 @@
       </c>
       <c s="5" t="inlineStr" r="E627">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F627"/>
@@ -26426,7 +26426,7 @@
       </c>
       <c s="5" t="inlineStr" r="E628">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F628"/>
@@ -26468,7 +26468,7 @@
       </c>
       <c s="5" t="inlineStr" r="E629">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F629"/>
@@ -26510,7 +26510,7 @@
       </c>
       <c s="5" t="inlineStr" r="E630">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F630"/>
@@ -26552,7 +26552,7 @@
       </c>
       <c s="5" t="inlineStr" r="E631">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F631"/>
@@ -26594,7 +26594,7 @@
       </c>
       <c s="5" t="inlineStr" r="E632">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F632"/>
@@ -26636,7 +26636,7 @@
       </c>
       <c s="5" t="inlineStr" r="E633">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F633"/>
@@ -26678,7 +26678,7 @@
       </c>
       <c s="5" t="inlineStr" r="E634">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F634"/>
@@ -26720,7 +26720,7 @@
       </c>
       <c s="5" t="inlineStr" r="E635">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F635"/>
@@ -26762,7 +26762,7 @@
       </c>
       <c s="5" t="inlineStr" r="E636">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F636"/>
@@ -26804,7 +26804,7 @@
       </c>
       <c s="5" t="inlineStr" r="E637">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F637"/>
@@ -26846,7 +26846,7 @@
       </c>
       <c s="5" t="inlineStr" r="E638">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F638"/>
@@ -26888,7 +26888,7 @@
       </c>
       <c s="5" t="inlineStr" r="E639">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F639"/>
@@ -26930,7 +26930,7 @@
       </c>
       <c s="5" t="inlineStr" r="E640">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F640"/>
@@ -26972,7 +26972,7 @@
       </c>
       <c s="5" t="inlineStr" r="E641">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F641"/>
@@ -27014,7 +27014,7 @@
       </c>
       <c s="5" t="inlineStr" r="E642">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F642"/>
@@ -27056,7 +27056,7 @@
       </c>
       <c s="5" t="inlineStr" r="E643">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F643"/>
@@ -27098,7 +27098,7 @@
       </c>
       <c s="5" t="inlineStr" r="E644">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F644"/>
@@ -27140,7 +27140,7 @@
       </c>
       <c s="5" t="inlineStr" r="E645">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F645"/>
@@ -27182,7 +27182,7 @@
       </c>
       <c s="5" t="inlineStr" r="E646">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F646"/>
@@ -27224,7 +27224,7 @@
       </c>
       <c s="5" t="inlineStr" r="E647">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F647"/>
@@ -27266,7 +27266,7 @@
       </c>
       <c s="5" t="inlineStr" r="E648">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F648"/>
@@ -27308,7 +27308,7 @@
       </c>
       <c s="5" t="inlineStr" r="E649">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F649"/>
@@ -27350,7 +27350,7 @@
       </c>
       <c s="5" t="inlineStr" r="E650">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F650"/>
@@ -27392,7 +27392,7 @@
       </c>
       <c s="5" t="inlineStr" r="E651">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F651"/>
@@ -27434,7 +27434,7 @@
       </c>
       <c s="5" t="inlineStr" r="E652">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F652"/>
@@ -27476,7 +27476,7 @@
       </c>
       <c s="5" t="inlineStr" r="E653">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F653"/>
@@ -27518,7 +27518,7 @@
       </c>
       <c s="5" t="inlineStr" r="E654">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F654"/>
@@ -27560,7 +27560,7 @@
       </c>
       <c s="5" t="inlineStr" r="E655">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F655"/>
@@ -27602,7 +27602,7 @@
       </c>
       <c s="5" t="inlineStr" r="E656">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F656"/>
@@ -27644,7 +27644,7 @@
       </c>
       <c s="5" t="inlineStr" r="E657">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F657"/>
@@ -27686,7 +27686,7 @@
       </c>
       <c s="5" t="inlineStr" r="E658">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F658"/>
@@ -27728,7 +27728,7 @@
       </c>
       <c s="5" t="inlineStr" r="E659">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F659"/>
@@ -27770,7 +27770,7 @@
       </c>
       <c s="5" t="inlineStr" r="E660">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F660"/>
@@ -27812,7 +27812,7 @@
       </c>
       <c s="5" t="inlineStr" r="E661">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F661"/>
@@ -27854,7 +27854,7 @@
       </c>
       <c s="5" t="inlineStr" r="E662">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F662"/>
@@ -27896,7 +27896,7 @@
       </c>
       <c s="5" t="inlineStr" r="E663">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F663"/>
@@ -27938,7 +27938,7 @@
       </c>
       <c s="5" t="inlineStr" r="E664">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F664"/>
@@ -27980,7 +27980,7 @@
       </c>
       <c s="5" t="inlineStr" r="E665">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F665"/>
@@ -28022,7 +28022,7 @@
       </c>
       <c s="5" t="inlineStr" r="E666">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F666"/>
@@ -28064,7 +28064,7 @@
       </c>
       <c s="5" t="inlineStr" r="E667">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F667"/>
@@ -28106,7 +28106,7 @@
       </c>
       <c s="5" t="inlineStr" r="E668">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F668"/>
@@ -28148,7 +28148,7 @@
       </c>
       <c s="5" t="inlineStr" r="E669">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F669"/>
@@ -28190,7 +28190,7 @@
       </c>
       <c s="5" t="inlineStr" r="E670">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F670"/>
@@ -28232,7 +28232,7 @@
       </c>
       <c s="5" t="inlineStr" r="E671">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F671"/>
@@ -28274,7 +28274,7 @@
       </c>
       <c s="5" t="inlineStr" r="E672">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F672"/>
@@ -28316,7 +28316,7 @@
       </c>
       <c s="5" t="inlineStr" r="E673">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F673"/>
@@ -28358,7 +28358,7 @@
       </c>
       <c s="5" t="inlineStr" r="E674">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F674"/>
@@ -28400,7 +28400,7 @@
       </c>
       <c s="5" t="inlineStr" r="E675">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F675"/>
@@ -28442,7 +28442,7 @@
       </c>
       <c s="5" t="inlineStr" r="E676">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F676"/>
@@ -28484,7 +28484,7 @@
       </c>
       <c s="5" t="inlineStr" r="E677">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F677"/>
@@ -28526,7 +28526,7 @@
       </c>
       <c s="5" t="inlineStr" r="E678">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F678"/>
@@ -28568,7 +28568,7 @@
       </c>
       <c s="5" t="inlineStr" r="E679">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F679"/>
@@ -28610,7 +28610,7 @@
       </c>
       <c s="5" t="inlineStr" r="E680">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F680"/>
@@ -28652,7 +28652,7 @@
       </c>
       <c s="5" t="inlineStr" r="E681">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F681"/>
@@ -28694,7 +28694,7 @@
       </c>
       <c s="5" t="inlineStr" r="E682">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F682"/>
@@ -28736,7 +28736,7 @@
       </c>
       <c s="5" t="inlineStr" r="E683">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F683"/>
@@ -28778,7 +28778,7 @@
       </c>
       <c s="5" t="inlineStr" r="E684">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F684"/>
@@ -28820,7 +28820,7 @@
       </c>
       <c s="5" t="inlineStr" r="E685">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F685"/>
@@ -28862,7 +28862,7 @@
       </c>
       <c s="5" t="inlineStr" r="E686">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F686"/>
@@ -28904,7 +28904,7 @@
       </c>
       <c s="5" t="inlineStr" r="E687">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F687"/>
@@ -28946,7 +28946,7 @@
       </c>
       <c s="5" t="inlineStr" r="E688">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F688"/>
@@ -28988,7 +28988,7 @@
       </c>
       <c s="5" t="inlineStr" r="E689">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F689"/>
@@ -29030,7 +29030,7 @@
       </c>
       <c s="5" t="inlineStr" r="E690">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F690"/>
@@ -29072,7 +29072,7 @@
       </c>
       <c s="5" t="inlineStr" r="E691">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F691"/>
@@ -29114,7 +29114,7 @@
       </c>
       <c s="5" t="inlineStr" r="E692">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F692"/>
@@ -29156,7 +29156,7 @@
       </c>
       <c s="5" t="inlineStr" r="E693">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F693"/>
@@ -29198,7 +29198,7 @@
       </c>
       <c s="5" t="inlineStr" r="E694">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F694"/>
@@ -29240,7 +29240,7 @@
       </c>
       <c s="5" t="inlineStr" r="E695">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F695"/>
@@ -29282,7 +29282,7 @@
       </c>
       <c s="5" t="inlineStr" r="E696">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F696"/>
@@ -29324,7 +29324,7 @@
       </c>
       <c s="5" t="inlineStr" r="E697">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F697"/>
@@ -29366,7 +29366,7 @@
       </c>
       <c s="5" t="inlineStr" r="E698">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F698"/>
@@ -29408,7 +29408,7 @@
       </c>
       <c s="5" t="inlineStr" r="E699">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F699"/>
@@ -29450,7 +29450,7 @@
       </c>
       <c s="5" t="inlineStr" r="E700">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F700"/>
@@ -29492,7 +29492,7 @@
       </c>
       <c s="5" t="inlineStr" r="E701">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F701"/>
@@ -29534,7 +29534,7 @@
       </c>
       <c s="5" t="inlineStr" r="E702">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F702"/>
@@ -29576,7 +29576,7 @@
       </c>
       <c s="5" t="inlineStr" r="E703">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F703"/>
@@ -29618,7 +29618,7 @@
       </c>
       <c s="5" t="inlineStr" r="E704">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F704"/>
@@ -29660,7 +29660,7 @@
       </c>
       <c s="5" t="inlineStr" r="E705">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F705"/>
@@ -29702,7 +29702,7 @@
       </c>
       <c s="5" t="inlineStr" r="E706">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F706"/>
@@ -29744,7 +29744,7 @@
       </c>
       <c s="5" t="inlineStr" r="E707">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F707"/>
@@ -29786,7 +29786,7 @@
       </c>
       <c s="5" t="inlineStr" r="E708">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F708"/>
@@ -29828,7 +29828,7 @@
       </c>
       <c s="5" t="inlineStr" r="E709">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F709"/>
@@ -29870,7 +29870,7 @@
       </c>
       <c s="5" t="inlineStr" r="E710">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F710"/>
@@ -29912,7 +29912,7 @@
       </c>
       <c s="5" t="inlineStr" r="E711">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F711"/>
@@ -29954,7 +29954,7 @@
       </c>
       <c s="5" t="inlineStr" r="E712">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F712"/>
@@ -29996,7 +29996,7 @@
       </c>
       <c s="5" t="inlineStr" r="E713">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F713"/>
@@ -30038,7 +30038,7 @@
       </c>
       <c s="5" t="inlineStr" r="E714">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F714"/>
@@ -30080,7 +30080,7 @@
       </c>
       <c s="5" t="inlineStr" r="E715">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F715"/>
@@ -30122,7 +30122,7 @@
       </c>
       <c s="5" t="inlineStr" r="E716">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F716"/>
@@ -30164,7 +30164,7 @@
       </c>
       <c s="5" t="inlineStr" r="E717">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F717"/>
@@ -30206,7 +30206,7 @@
       </c>
       <c s="5" t="inlineStr" r="E718">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F718"/>
@@ -30248,7 +30248,7 @@
       </c>
       <c s="5" t="inlineStr" r="E719">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F719"/>
@@ -30290,7 +30290,7 @@
       </c>
       <c s="5" t="inlineStr" r="E720">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F720"/>
@@ -30332,7 +30332,7 @@
       </c>
       <c s="5" t="inlineStr" r="E721">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F721"/>
@@ -30374,7 +30374,7 @@
       </c>
       <c s="5" t="inlineStr" r="E722">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F722"/>
@@ -30416,7 +30416,7 @@
       </c>
       <c s="5" t="inlineStr" r="E723">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F723"/>
@@ -30458,7 +30458,7 @@
       </c>
       <c s="5" t="inlineStr" r="E724">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F724"/>
@@ -30500,7 +30500,7 @@
       </c>
       <c s="5" t="inlineStr" r="E725">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F725"/>
@@ -30542,7 +30542,7 @@
       </c>
       <c s="5" t="inlineStr" r="E726">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F726"/>
@@ -30584,7 +30584,7 @@
       </c>
       <c s="5" t="inlineStr" r="E727">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F727"/>
@@ -30626,7 +30626,7 @@
       </c>
       <c s="5" t="inlineStr" r="E728">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F728"/>
@@ -30668,7 +30668,7 @@
       </c>
       <c s="5" t="inlineStr" r="E729">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F729"/>
@@ -30710,7 +30710,7 @@
       </c>
       <c s="5" t="inlineStr" r="E730">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F730"/>
@@ -30752,7 +30752,7 @@
       </c>
       <c s="5" t="inlineStr" r="E731">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F731"/>
@@ -30794,7 +30794,7 @@
       </c>
       <c s="5" t="inlineStr" r="E732">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F732"/>
@@ -30836,7 +30836,7 @@
       </c>
       <c s="5" t="inlineStr" r="E733">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F733"/>
@@ -30878,7 +30878,7 @@
       </c>
       <c s="5" t="inlineStr" r="E734">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F734"/>
@@ -30920,7 +30920,7 @@
       </c>
       <c s="5" t="inlineStr" r="E735">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F735"/>
@@ -30962,7 +30962,7 @@
       </c>
       <c s="5" t="inlineStr" r="E736">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F736"/>
@@ -31004,7 +31004,7 @@
       </c>
       <c s="5" t="inlineStr" r="E737">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F737"/>
@@ -31046,7 +31046,7 @@
       </c>
       <c s="5" t="inlineStr" r="E738">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F738"/>
@@ -31088,7 +31088,7 @@
       </c>
       <c s="5" t="inlineStr" r="E739">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F739"/>
@@ -31130,7 +31130,7 @@
       </c>
       <c s="5" t="inlineStr" r="E740">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F740"/>
@@ -31172,7 +31172,7 @@
       </c>
       <c s="5" t="inlineStr" r="E741">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F741"/>
@@ -31214,7 +31214,7 @@
       </c>
       <c s="5" t="inlineStr" r="E742">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F742"/>
@@ -31256,7 +31256,7 @@
       </c>
       <c s="5" t="inlineStr" r="E743">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F743"/>
@@ -31298,7 +31298,7 @@
       </c>
       <c s="5" t="inlineStr" r="E744">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F744"/>
@@ -31340,7 +31340,7 @@
       </c>
       <c s="5" t="inlineStr" r="E745">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F745"/>
@@ -31382,7 +31382,7 @@
       </c>
       <c s="5" t="inlineStr" r="E746">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F746"/>
@@ -31424,7 +31424,7 @@
       </c>
       <c s="5" t="inlineStr" r="E747">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F747"/>
@@ -31466,7 +31466,7 @@
       </c>
       <c s="5" t="inlineStr" r="E748">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F748"/>
@@ -31508,7 +31508,7 @@
       </c>
       <c s="5" t="inlineStr" r="E749">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F749"/>
@@ -31550,7 +31550,7 @@
       </c>
       <c s="5" t="inlineStr" r="E750">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F750"/>
@@ -31592,7 +31592,7 @@
       </c>
       <c s="5" t="inlineStr" r="E751">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F751"/>
@@ -31634,7 +31634,7 @@
       </c>
       <c s="5" t="inlineStr" r="E752">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F752"/>
@@ -31676,7 +31676,7 @@
       </c>
       <c s="5" t="inlineStr" r="E753">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F753"/>
@@ -31718,7 +31718,7 @@
       </c>
       <c s="5" t="inlineStr" r="E754">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F754"/>
@@ -31760,7 +31760,7 @@
       </c>
       <c s="5" t="inlineStr" r="E755">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F755"/>
@@ -31802,7 +31802,7 @@
       </c>
       <c s="5" t="inlineStr" r="E756">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F756"/>
@@ -31844,7 +31844,7 @@
       </c>
       <c s="5" t="inlineStr" r="E757">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F757"/>
@@ -31886,7 +31886,7 @@
       </c>
       <c s="5" t="inlineStr" r="E758">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F758"/>
@@ -31928,7 +31928,7 @@
       </c>
       <c s="5" t="inlineStr" r="E759">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F759"/>
@@ -31970,7 +31970,7 @@
       </c>
       <c s="5" t="inlineStr" r="E760">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F760"/>
@@ -32012,7 +32012,7 @@
       </c>
       <c s="5" t="inlineStr" r="E761">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F761"/>
@@ -32054,7 +32054,7 @@
       </c>
       <c s="5" t="inlineStr" r="E762">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F762"/>
@@ -32096,7 +32096,7 @@
       </c>
       <c s="5" t="inlineStr" r="E763">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F763"/>
@@ -32138,7 +32138,7 @@
       </c>
       <c s="5" t="inlineStr" r="E764">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F764"/>
@@ -32180,7 +32180,7 @@
       </c>
       <c s="5" t="inlineStr" r="E765">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F765"/>
@@ -32222,7 +32222,7 @@
       </c>
       <c s="5" t="inlineStr" r="E766">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F766"/>
@@ -32264,7 +32264,7 @@
       </c>
       <c s="5" t="inlineStr" r="E767">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F767"/>
@@ -32306,7 +32306,7 @@
       </c>
       <c s="5" t="inlineStr" r="E768">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F768"/>
@@ -32348,7 +32348,7 @@
       </c>
       <c s="5" t="inlineStr" r="E769">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F769"/>
@@ -32390,7 +32390,7 @@
       </c>
       <c s="5" t="inlineStr" r="E770">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F770"/>
@@ -32432,7 +32432,7 @@
       </c>
       <c s="5" t="inlineStr" r="E771">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F771"/>
@@ -32474,7 +32474,7 @@
       </c>
       <c s="5" t="inlineStr" r="E772">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F772"/>
@@ -32516,7 +32516,7 @@
       </c>
       <c s="5" t="inlineStr" r="E773">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F773"/>
@@ -32558,7 +32558,7 @@
       </c>
       <c s="5" t="inlineStr" r="E774">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F774"/>
@@ -32600,7 +32600,7 @@
       </c>
       <c s="5" t="inlineStr" r="E775">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F775"/>
@@ -32642,7 +32642,7 @@
       </c>
       <c s="5" t="inlineStr" r="E776">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F776"/>
@@ -32684,7 +32684,7 @@
       </c>
       <c s="5" t="inlineStr" r="E777">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F777"/>
@@ -32726,7 +32726,7 @@
       </c>
       <c s="5" t="inlineStr" r="E778">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F778"/>
@@ -32768,7 +32768,7 @@
       </c>
       <c s="5" t="inlineStr" r="E779">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F779"/>
@@ -32810,7 +32810,7 @@
       </c>
       <c s="5" t="inlineStr" r="E780">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F780"/>
@@ -32852,7 +32852,7 @@
       </c>
       <c s="5" t="inlineStr" r="E781">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F781"/>
@@ -32894,7 +32894,7 @@
       </c>
       <c s="5" t="inlineStr" r="E782">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F782"/>
@@ -32936,7 +32936,7 @@
       </c>
       <c s="5" t="inlineStr" r="E783">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F783"/>
@@ -32978,7 +32978,7 @@
       </c>
       <c s="5" t="inlineStr" r="E784">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F784"/>
@@ -33020,7 +33020,7 @@
       </c>
       <c s="5" t="inlineStr" r="E785">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F785"/>
@@ -33062,7 +33062,7 @@
       </c>
       <c s="5" t="inlineStr" r="E786">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F786"/>
@@ -33104,7 +33104,7 @@
       </c>
       <c s="5" t="inlineStr" r="E787">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F787"/>
@@ -33146,7 +33146,7 @@
       </c>
       <c s="5" t="inlineStr" r="E788">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F788"/>
@@ -33188,7 +33188,7 @@
       </c>
       <c s="5" t="inlineStr" r="E789">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F789"/>
@@ -33230,7 +33230,7 @@
       </c>
       <c s="5" t="inlineStr" r="E790">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F790"/>
@@ -33272,7 +33272,7 @@
       </c>
       <c s="5" t="inlineStr" r="E791">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F791"/>
@@ -33314,7 +33314,7 @@
       </c>
       <c s="5" t="inlineStr" r="E792">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F792"/>
@@ -33356,7 +33356,7 @@
       </c>
       <c s="5" t="inlineStr" r="E793">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F793"/>
@@ -33398,7 +33398,7 @@
       </c>
       <c s="5" t="inlineStr" r="E794">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F794"/>
@@ -33440,7 +33440,7 @@
       </c>
       <c s="5" t="inlineStr" r="E795">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F795"/>
@@ -33482,7 +33482,7 @@
       </c>
       <c s="5" t="inlineStr" r="E796">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F796"/>
@@ -33524,7 +33524,7 @@
       </c>
       <c s="5" t="inlineStr" r="E797">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F797"/>
@@ -33566,7 +33566,7 @@
       </c>
       <c s="5" t="inlineStr" r="E798">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F798"/>
@@ -33608,7 +33608,7 @@
       </c>
       <c s="5" t="inlineStr" r="E799">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F799"/>
@@ -33650,7 +33650,7 @@
       </c>
       <c s="5" t="inlineStr" r="E800">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F800"/>
@@ -33692,7 +33692,7 @@
       </c>
       <c s="5" t="inlineStr" r="E801">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F801"/>
@@ -33734,7 +33734,7 @@
       </c>
       <c s="5" t="inlineStr" r="E802">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F802"/>
@@ -33776,7 +33776,7 @@
       </c>
       <c s="5" t="inlineStr" r="E803">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F803"/>
@@ -33818,7 +33818,7 @@
       </c>
       <c s="5" t="inlineStr" r="E804">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F804"/>
@@ -33860,7 +33860,7 @@
       </c>
       <c s="5" t="inlineStr" r="E805">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F805"/>
@@ -33902,7 +33902,7 @@
       </c>
       <c s="5" t="inlineStr" r="E806">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F806"/>
@@ -33944,7 +33944,7 @@
       </c>
       <c s="5" t="inlineStr" r="E807">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F807"/>
@@ -33986,7 +33986,7 @@
       </c>
       <c s="5" t="inlineStr" r="E808">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F808"/>
@@ -34028,7 +34028,7 @@
       </c>
       <c s="5" t="inlineStr" r="E809">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F809"/>
@@ -34070,7 +34070,7 @@
       </c>
       <c s="5" t="inlineStr" r="E810">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F810"/>
@@ -34112,7 +34112,7 @@
       </c>
       <c s="5" t="inlineStr" r="E811">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F811"/>
@@ -34154,7 +34154,7 @@
       </c>
       <c s="5" t="inlineStr" r="E812">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F812"/>
@@ -34196,7 +34196,7 @@
       </c>
       <c s="5" t="inlineStr" r="E813">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F813"/>
@@ -34238,7 +34238,7 @@
       </c>
       <c s="5" t="inlineStr" r="E814">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F814"/>
@@ -34280,7 +34280,7 @@
       </c>
       <c s="5" t="inlineStr" r="E815">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F815"/>
@@ -34322,7 +34322,7 @@
       </c>
       <c s="5" t="inlineStr" r="E816">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F816"/>
@@ -34364,7 +34364,7 @@
       </c>
       <c s="5" t="inlineStr" r="E817">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F817"/>
@@ -34406,7 +34406,7 @@
       </c>
       <c s="5" t="inlineStr" r="E818">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F818"/>
@@ -34448,7 +34448,7 @@
       </c>
       <c s="5" t="inlineStr" r="E819">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F819"/>
@@ -34490,7 +34490,7 @@
       </c>
       <c s="5" t="inlineStr" r="E820">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F820"/>
@@ -34532,7 +34532,7 @@
       </c>
       <c s="5" t="inlineStr" r="E821">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F821"/>
@@ -34574,7 +34574,7 @@
       </c>
       <c s="5" t="inlineStr" r="E822">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F822"/>
@@ -34616,7 +34616,7 @@
       </c>
       <c s="5" t="inlineStr" r="E823">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F823"/>
@@ -34658,7 +34658,7 @@
       </c>
       <c s="5" t="inlineStr" r="E824">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F824"/>
@@ -34700,7 +34700,7 @@
       </c>
       <c s="5" t="inlineStr" r="E825">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F825"/>
@@ -34742,7 +34742,7 @@
       </c>
       <c s="5" t="inlineStr" r="E826">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F826"/>
@@ -34784,7 +34784,7 @@
       </c>
       <c s="5" t="inlineStr" r="E827">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F827"/>
@@ -34826,7 +34826,7 @@
       </c>
       <c s="5" t="inlineStr" r="E828">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F828"/>
@@ -34868,7 +34868,7 @@
       </c>
       <c s="5" t="inlineStr" r="E829">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F829"/>
@@ -34910,7 +34910,7 @@
       </c>
       <c s="5" t="inlineStr" r="E830">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F830"/>
@@ -34952,7 +34952,7 @@
       </c>
       <c s="5" t="inlineStr" r="E831">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F831"/>
@@ -34994,7 +34994,7 @@
       </c>
       <c s="5" t="inlineStr" r="E832">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F832"/>
@@ -35036,7 +35036,7 @@
       </c>
       <c s="5" t="inlineStr" r="E833">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F833"/>
@@ -35078,7 +35078,7 @@
       </c>
       <c s="5" t="inlineStr" r="E834">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F834"/>
@@ -35120,7 +35120,7 @@
       </c>
       <c s="5" t="inlineStr" r="E835">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F835"/>
@@ -35162,7 +35162,7 @@
       </c>
       <c s="5" t="inlineStr" r="E836">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F836"/>
@@ -35204,7 +35204,7 @@
       </c>
       <c s="5" t="inlineStr" r="E837">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F837"/>
@@ -35246,7 +35246,7 @@
       </c>
       <c s="5" t="inlineStr" r="E838">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F838"/>
@@ -35288,7 +35288,7 @@
       </c>
       <c s="5" t="inlineStr" r="E839">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F839"/>
@@ -35330,7 +35330,7 @@
       </c>
       <c s="5" t="inlineStr" r="E840">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F840"/>
@@ -35372,7 +35372,7 @@
       </c>
       <c s="5" t="inlineStr" r="E841">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F841"/>
@@ -35414,7 +35414,7 @@
       </c>
       <c s="5" t="inlineStr" r="E842">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F842"/>
@@ -35456,7 +35456,7 @@
       </c>
       <c s="5" t="inlineStr" r="E843">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F843"/>
@@ -35498,7 +35498,7 @@
       </c>
       <c s="5" t="inlineStr" r="E844">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F844"/>
@@ -35540,7 +35540,7 @@
       </c>
       <c s="5" t="inlineStr" r="E845">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F845"/>
@@ -35582,7 +35582,7 @@
       </c>
       <c s="5" t="inlineStr" r="E846">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F846"/>
@@ -35624,7 +35624,7 @@
       </c>
       <c s="5" t="inlineStr" r="E847">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F847"/>
@@ -35666,7 +35666,7 @@
       </c>
       <c s="5" t="inlineStr" r="E848">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F848"/>
@@ -35708,7 +35708,7 @@
       </c>
       <c s="5" t="inlineStr" r="E849">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F849"/>
@@ -35750,7 +35750,7 @@
       </c>
       <c s="5" t="inlineStr" r="E850">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F850"/>
@@ -35792,7 +35792,7 @@
       </c>
       <c s="5" t="inlineStr" r="E851">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F851"/>
@@ -35834,7 +35834,7 @@
       </c>
       <c s="5" t="inlineStr" r="E852">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F852"/>
@@ -35876,7 +35876,7 @@
       </c>
       <c s="5" t="inlineStr" r="E853">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F853"/>
@@ -35918,7 +35918,7 @@
       </c>
       <c s="5" t="inlineStr" r="E854">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F854"/>
@@ -35960,7 +35960,7 @@
       </c>
       <c s="5" t="inlineStr" r="E855">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F855"/>
@@ -36002,7 +36002,7 @@
       </c>
       <c s="5" t="inlineStr" r="E856">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F856"/>
@@ -36044,7 +36044,7 @@
       </c>
       <c s="5" t="inlineStr" r="E857">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F857"/>
@@ -36086,7 +36086,7 @@
       </c>
       <c s="5" t="inlineStr" r="E858">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F858"/>
@@ -36128,7 +36128,7 @@
       </c>
       <c s="5" t="inlineStr" r="E859">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F859"/>
@@ -36170,7 +36170,7 @@
       </c>
       <c s="5" t="inlineStr" r="E860">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F860"/>
@@ -36212,7 +36212,7 @@
       </c>
       <c s="5" t="inlineStr" r="E861">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F861"/>
@@ -36254,7 +36254,7 @@
       </c>
       <c s="5" t="inlineStr" r="E862">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F862"/>
@@ -36296,7 +36296,7 @@
       </c>
       <c s="5" t="inlineStr" r="E863">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F863"/>
@@ -36338,7 +36338,7 @@
       </c>
       <c s="5" t="inlineStr" r="E864">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F864"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c s="5" t="inlineStr" r="E865">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F865"/>
@@ -36422,7 +36422,7 @@
       </c>
       <c s="5" t="inlineStr" r="E866">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F866"/>
@@ -36464,7 +36464,7 @@
       </c>
       <c s="5" t="inlineStr" r="E867">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F867"/>
@@ -36506,7 +36506,7 @@
       </c>
       <c s="5" t="inlineStr" r="E868">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F868"/>
@@ -36548,7 +36548,7 @@
       </c>
       <c s="5" t="inlineStr" r="E869">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F869"/>
@@ -36590,7 +36590,7 @@
       </c>
       <c s="5" t="inlineStr" r="E870">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F870"/>
@@ -36632,7 +36632,7 @@
       </c>
       <c s="5" t="inlineStr" r="E871">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F871"/>
@@ -36674,7 +36674,7 @@
       </c>
       <c s="5" t="inlineStr" r="E872">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F872"/>
@@ -36716,7 +36716,7 @@
       </c>
       <c s="5" t="inlineStr" r="E873">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F873"/>
@@ -36758,7 +36758,7 @@
       </c>
       <c s="5" t="inlineStr" r="E874">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F874"/>
@@ -36800,7 +36800,7 @@
       </c>
       <c s="5" t="inlineStr" r="E875">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F875"/>
@@ -36842,7 +36842,7 @@
       </c>
       <c s="5" t="inlineStr" r="E876">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F876"/>
@@ -36884,7 +36884,7 @@
       </c>
       <c s="5" t="inlineStr" r="E877">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F877"/>
@@ -36926,7 +36926,7 @@
       </c>
       <c s="5" t="inlineStr" r="E878">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F878"/>
@@ -36968,7 +36968,7 @@
       </c>
       <c s="5" t="inlineStr" r="E879">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F879"/>
@@ -37010,7 +37010,7 @@
       </c>
       <c s="5" t="inlineStr" r="E880">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F880"/>
@@ -37052,7 +37052,7 @@
       </c>
       <c s="5" t="inlineStr" r="E881">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F881"/>
@@ -37094,7 +37094,7 @@
       </c>
       <c s="5" t="inlineStr" r="E882">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F882"/>
@@ -37136,7 +37136,7 @@
       </c>
       <c s="5" t="inlineStr" r="E883">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F883"/>
@@ -37178,7 +37178,7 @@
       </c>
       <c s="5" t="inlineStr" r="E884">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F884"/>
@@ -37220,7 +37220,7 @@
       </c>
       <c s="5" t="inlineStr" r="E885">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F885"/>
@@ -37262,7 +37262,7 @@
       </c>
       <c s="5" t="inlineStr" r="E886">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F886"/>
@@ -37304,7 +37304,7 @@
       </c>
       <c s="5" t="inlineStr" r="E887">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F887"/>
@@ -37346,7 +37346,7 @@
       </c>
       <c s="5" t="inlineStr" r="E888">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F888"/>
@@ -37388,7 +37388,7 @@
       </c>
       <c s="5" t="inlineStr" r="E889">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F889"/>
@@ -37430,7 +37430,7 @@
       </c>
       <c s="5" t="inlineStr" r="E890">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F890"/>
@@ -37472,7 +37472,7 @@
       </c>
       <c s="5" t="inlineStr" r="E891">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F891"/>
@@ -37514,7 +37514,7 @@
       </c>
       <c s="5" t="inlineStr" r="E892">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F892"/>
@@ -37556,7 +37556,7 @@
       </c>
       <c s="5" t="inlineStr" r="E893">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F893"/>
@@ -37598,7 +37598,7 @@
       </c>
       <c s="5" t="inlineStr" r="E894">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F894"/>
@@ -37640,7 +37640,7 @@
       </c>
       <c s="5" t="inlineStr" r="E895">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F895"/>
@@ -37682,7 +37682,7 @@
       </c>
       <c s="5" t="inlineStr" r="E896">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F896"/>
@@ -37724,7 +37724,7 @@
       </c>
       <c s="5" t="inlineStr" r="E897">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F897"/>
@@ -37766,7 +37766,7 @@
       </c>
       <c s="5" t="inlineStr" r="E898">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F898"/>
@@ -37808,7 +37808,7 @@
       </c>
       <c s="5" t="inlineStr" r="E899">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F899"/>
@@ -37850,7 +37850,7 @@
       </c>
       <c s="5" t="inlineStr" r="E900">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F900"/>
@@ -37892,7 +37892,7 @@
       </c>
       <c s="5" t="inlineStr" r="E901">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F901"/>
@@ -37934,7 +37934,7 @@
       </c>
       <c s="5" t="inlineStr" r="E902">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F902"/>
@@ -37976,7 +37976,7 @@
       </c>
       <c s="5" t="inlineStr" r="E903">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F903"/>
@@ -38018,7 +38018,7 @@
       </c>
       <c s="5" t="inlineStr" r="E904">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F904"/>
@@ -38060,7 +38060,7 @@
       </c>
       <c s="5" t="inlineStr" r="E905">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F905"/>
@@ -38102,7 +38102,7 @@
       </c>
       <c s="5" t="inlineStr" r="E906">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F906"/>
@@ -38144,7 +38144,7 @@
       </c>
       <c s="5" t="inlineStr" r="E907">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F907"/>
@@ -38186,7 +38186,7 @@
       </c>
       <c s="5" t="inlineStr" r="E908">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F908"/>
@@ -38228,7 +38228,7 @@
       </c>
       <c s="5" t="inlineStr" r="E909">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F909"/>
@@ -38270,7 +38270,7 @@
       </c>
       <c s="5" t="inlineStr" r="E910">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F910"/>
@@ -38312,7 +38312,7 @@
       </c>
       <c s="5" t="inlineStr" r="E911">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F911"/>
@@ -38354,7 +38354,7 @@
       </c>
       <c s="5" t="inlineStr" r="E912">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F912"/>
@@ -38396,7 +38396,7 @@
       </c>
       <c s="5" t="inlineStr" r="E913">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F913"/>
@@ -38438,7 +38438,7 @@
       </c>
       <c s="5" t="inlineStr" r="E914">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F914"/>
@@ -38480,7 +38480,7 @@
       </c>
       <c s="5" t="inlineStr" r="E915">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F915"/>
@@ -38522,7 +38522,7 @@
       </c>
       <c s="5" t="inlineStr" r="E916">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F916"/>
@@ -38564,7 +38564,7 @@
       </c>
       <c s="5" t="inlineStr" r="E917">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F917"/>
@@ -38606,7 +38606,7 @@
       </c>
       <c s="5" t="inlineStr" r="E918">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F918"/>
@@ -38648,7 +38648,7 @@
       </c>
       <c s="5" t="inlineStr" r="E919">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F919"/>
@@ -38690,7 +38690,7 @@
       </c>
       <c s="5" t="inlineStr" r="E920">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F920"/>
@@ -38732,7 +38732,7 @@
       </c>
       <c s="5" t="inlineStr" r="E921">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F921"/>
@@ -38774,7 +38774,7 @@
       </c>
       <c s="5" t="inlineStr" r="E922">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F922"/>
@@ -38816,7 +38816,7 @@
       </c>
       <c s="5" t="inlineStr" r="E923">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F923"/>
@@ -38858,7 +38858,7 @@
       </c>
       <c s="5" t="inlineStr" r="E924">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F924"/>
@@ -38900,7 +38900,7 @@
       </c>
       <c s="5" t="inlineStr" r="E925">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F925"/>
@@ -38942,7 +38942,7 @@
       </c>
       <c s="5" t="inlineStr" r="E926">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F926"/>
@@ -38984,7 +38984,7 @@
       </c>
       <c s="5" t="inlineStr" r="E927">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F927"/>
@@ -39026,7 +39026,7 @@
       </c>
       <c s="5" t="inlineStr" r="E928">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F928"/>
@@ -39068,7 +39068,7 @@
       </c>
       <c s="5" t="inlineStr" r="E929">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F929"/>
@@ -39110,7 +39110,7 @@
       </c>
       <c s="5" t="inlineStr" r="E930">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F930"/>
@@ -39152,7 +39152,7 @@
       </c>
       <c s="5" t="inlineStr" r="E931">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F931"/>
@@ -39194,7 +39194,7 @@
       </c>
       <c s="5" t="inlineStr" r="E932">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F932"/>
@@ -39236,7 +39236,7 @@
       </c>
       <c s="5" t="inlineStr" r="E933">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F933"/>
@@ -39278,7 +39278,7 @@
       </c>
       <c s="5" t="inlineStr" r="E934">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F934"/>
@@ -39320,7 +39320,7 @@
       </c>
       <c s="5" t="inlineStr" r="E935">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F935"/>
@@ -39362,7 +39362,7 @@
       </c>
       <c s="5" t="inlineStr" r="E936">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F936"/>
@@ -39404,7 +39404,7 @@
       </c>
       <c s="5" t="inlineStr" r="E937">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F937"/>
@@ -39446,7 +39446,7 @@
       </c>
       <c s="5" t="inlineStr" r="E938">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F938"/>
@@ -39488,7 +39488,7 @@
       </c>
       <c s="5" t="inlineStr" r="E939">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F939"/>
@@ -39530,7 +39530,7 @@
       </c>
       <c s="5" t="inlineStr" r="E940">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F940"/>
@@ -39572,7 +39572,7 @@
       </c>
       <c s="5" t="inlineStr" r="E941">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F941"/>
@@ -39614,7 +39614,7 @@
       </c>
       <c s="5" t="inlineStr" r="E942">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F942"/>
@@ -39656,7 +39656,7 @@
       </c>
       <c s="5" t="inlineStr" r="E943">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F943"/>
@@ -39698,7 +39698,7 @@
       </c>
       <c s="5" t="inlineStr" r="E944">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F944"/>
@@ -39740,7 +39740,7 @@
       </c>
       <c s="5" t="inlineStr" r="E945">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F945"/>
@@ -39782,7 +39782,7 @@
       </c>
       <c s="5" t="inlineStr" r="E946">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F946"/>
@@ -39824,7 +39824,7 @@
       </c>
       <c s="5" t="inlineStr" r="E947">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F947"/>
@@ -39866,7 +39866,7 @@
       </c>
       <c s="5" t="inlineStr" r="E948">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F948"/>
@@ -39908,7 +39908,7 @@
       </c>
       <c s="5" t="inlineStr" r="E949">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F949"/>
@@ -39950,7 +39950,7 @@
       </c>
       <c s="5" t="inlineStr" r="E950">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F950"/>
@@ -39992,7 +39992,7 @@
       </c>
       <c s="5" t="inlineStr" r="E951">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F951"/>
@@ -40034,7 +40034,7 @@
       </c>
       <c s="5" t="inlineStr" r="E952">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F952"/>
@@ -40076,7 +40076,7 @@
       </c>
       <c s="5" t="inlineStr" r="E953">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F953"/>
@@ -40118,7 +40118,7 @@
       </c>
       <c s="5" t="inlineStr" r="E954">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F954"/>
@@ -40160,7 +40160,7 @@
       </c>
       <c s="5" t="inlineStr" r="E955">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F955"/>
@@ -40202,7 +40202,7 @@
       </c>
       <c s="5" t="inlineStr" r="E956">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F956"/>
@@ -40244,7 +40244,7 @@
       </c>
       <c s="5" t="inlineStr" r="E957">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F957"/>
@@ -40286,7 +40286,7 @@
       </c>
       <c s="5" t="inlineStr" r="E958">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F958"/>
@@ -40328,7 +40328,7 @@
       </c>
       <c s="5" t="inlineStr" r="E959">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F959"/>
@@ -40370,7 +40370,7 @@
       </c>
       <c s="5" t="inlineStr" r="E960">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F960"/>
@@ -40412,7 +40412,7 @@
       </c>
       <c s="5" t="inlineStr" r="E961">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F961"/>
@@ -40454,7 +40454,7 @@
       </c>
       <c s="5" t="inlineStr" r="E962">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F962"/>
@@ -40496,7 +40496,7 @@
       </c>
       <c s="5" t="inlineStr" r="E963">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F963"/>
@@ -40538,7 +40538,7 @@
       </c>
       <c s="5" t="inlineStr" r="E964">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F964"/>
@@ -40580,7 +40580,7 @@
       </c>
       <c s="5" t="inlineStr" r="E965">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F965"/>
@@ -40622,7 +40622,7 @@
       </c>
       <c s="5" t="inlineStr" r="E966">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F966"/>
@@ -40664,7 +40664,7 @@
       </c>
       <c s="5" t="inlineStr" r="E967">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F967"/>
@@ -40706,7 +40706,7 @@
       </c>
       <c s="5" t="inlineStr" r="E968">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F968"/>
@@ -40748,7 +40748,7 @@
       </c>
       <c s="5" t="inlineStr" r="E969">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F969"/>
@@ -40790,7 +40790,7 @@
       </c>
       <c s="5" t="inlineStr" r="E970">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F970"/>
@@ -40832,7 +40832,7 @@
       </c>
       <c s="5" t="inlineStr" r="E971">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F971"/>
@@ -40874,7 +40874,7 @@
       </c>
       <c s="5" t="inlineStr" r="E972">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F972"/>
@@ -40916,7 +40916,7 @@
       </c>
       <c s="5" t="inlineStr" r="E973">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F973"/>
@@ -40958,7 +40958,7 @@
       </c>
       <c s="5" t="inlineStr" r="E974">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F974"/>
@@ -41000,7 +41000,7 @@
       </c>
       <c s="5" t="inlineStr" r="E975">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F975"/>
@@ -41042,7 +41042,7 @@
       </c>
       <c s="5" t="inlineStr" r="E976">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F976"/>
@@ -41084,7 +41084,7 @@
       </c>
       <c s="5" t="inlineStr" r="E977">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F977"/>
@@ -41126,7 +41126,7 @@
       </c>
       <c s="5" t="inlineStr" r="E978">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F978"/>
@@ -41168,7 +41168,7 @@
       </c>
       <c s="5" t="inlineStr" r="E979">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F979"/>
@@ -41210,7 +41210,7 @@
       </c>
       <c s="5" t="inlineStr" r="E980">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F980"/>
@@ -41252,7 +41252,7 @@
       </c>
       <c s="5" t="inlineStr" r="E981">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F981"/>
@@ -41294,7 +41294,7 @@
       </c>
       <c s="5" t="inlineStr" r="E982">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F982"/>
@@ -41336,7 +41336,7 @@
       </c>
       <c s="5" t="inlineStr" r="E983">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F983"/>
@@ -41378,7 +41378,7 @@
       </c>
       <c s="5" t="inlineStr" r="E984">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F984"/>
@@ -41420,7 +41420,7 @@
       </c>
       <c s="5" t="inlineStr" r="E985">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F985"/>
@@ -41462,7 +41462,7 @@
       </c>
       <c s="5" t="inlineStr" r="E986">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F986"/>
@@ -41504,7 +41504,7 @@
       </c>
       <c s="5" t="inlineStr" r="E987">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F987"/>
@@ -41546,7 +41546,7 @@
       </c>
       <c s="5" t="inlineStr" r="E988">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F988"/>
@@ -41588,7 +41588,7 @@
       </c>
       <c s="5" t="inlineStr" r="E989">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F989"/>
@@ -41630,7 +41630,7 @@
       </c>
       <c s="5" t="inlineStr" r="E990">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F990"/>
@@ -41672,7 +41672,7 @@
       </c>
       <c s="5" t="inlineStr" r="E991">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F991"/>
@@ -41714,7 +41714,7 @@
       </c>
       <c s="5" t="inlineStr" r="E992">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F992"/>
@@ -41756,7 +41756,7 @@
       </c>
       <c s="5" t="inlineStr" r="E993">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F993"/>
@@ -41798,7 +41798,7 @@
       </c>
       <c s="5" t="inlineStr" r="E994">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F994"/>
@@ -41840,7 +41840,7 @@
       </c>
       <c s="5" t="inlineStr" r="E995">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F995"/>
@@ -41882,7 +41882,7 @@
       </c>
       <c s="5" t="inlineStr" r="E996">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F996"/>
@@ -41924,7 +41924,7 @@
       </c>
       <c s="5" t="inlineStr" r="E997">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F997"/>
@@ -41966,7 +41966,7 @@
       </c>
       <c s="5" t="inlineStr" r="E998">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F998"/>
@@ -42008,7 +42008,7 @@
       </c>
       <c s="5" t="inlineStr" r="E999">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F999"/>
@@ -42050,7 +42050,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1000">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1000"/>
@@ -42092,7 +42092,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1001">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1001"/>
@@ -42134,7 +42134,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1002">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1002"/>
@@ -42176,7 +42176,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1003">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1003"/>
@@ -42218,7 +42218,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1004">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1004"/>
@@ -42260,7 +42260,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1005">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1005"/>
@@ -42302,7 +42302,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1006">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1006"/>
@@ -42344,7 +42344,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1007">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1007"/>
@@ -42386,7 +42386,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1008">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1008"/>
@@ -42428,7 +42428,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1009">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1009"/>
@@ -42470,7 +42470,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1010">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1010"/>
@@ -42512,7 +42512,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1011">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1011"/>
@@ -42554,7 +42554,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1012">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1012"/>
@@ -42596,7 +42596,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1013">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1013"/>
@@ -42638,7 +42638,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1014">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1014"/>
@@ -42680,7 +42680,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1015">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1015"/>
@@ -42722,7 +42722,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1016">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1016"/>
@@ -42764,7 +42764,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1017">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1017"/>
@@ -42806,7 +42806,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1018">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1018"/>
@@ -42848,7 +42848,7 @@
       </c>
       <c s="5" t="inlineStr" r="E1019">
         <is>
-          <t xml:space="preserve">21</t>
+          <t xml:space="preserve">20</t>
         </is>
       </c>
       <c s="7" t="str" r="F1019"/>

--- a/data/city_permits/raw/city_2015.xlsx
+++ b/data/city_permits/raw/city_2015.xlsx
@@ -257,14 +257,14 @@
         </is>
       </c>
       <c s="2" r="H1">
-        <v>42621</v>
+        <v>42626</v>
       </c>
     </row>
     <row r="2" ht="1" customHeight="1"/>
     <row r="3" ht="18" customHeight="1">
       <c s="1" t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">For Permits Issued 01/01/2015 through 12/31/2015</t>
+          <t xml:space="preserve">For Permits Issued 1/1/2015 through 12/31/2015</t>
         </is>
       </c>
     </row>

--- a/data/city_permits/raw/city_2015.xlsx
+++ b/data/city_permits/raw/city_2015.xlsx
@@ -257,14 +257,14 @@
         </is>
       </c>
       <c s="2" r="H1">
-        <v>42626</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="2" ht="1" customHeight="1"/>
     <row r="3" ht="18" customHeight="1">
       <c s="1" t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">For Permits Issued 1/1/2015 through 12/31/2015</t>
+          <t xml:space="preserve">For Permits Issued 01/01/2015 through 12/31/2015</t>
         </is>
       </c>
     </row>
